--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -396,15 +396,15 @@
         <v>17850</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>99999</v>
+        <v>17851</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
